--- a/app/static/assets/packages.xlsx
+++ b/app/static/assets/packages.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\VS code\Web\Flask\Glean Project\app\static\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF65031-85C8-4DD5-8D28-255DCBA895B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>Gigantes plaki (Greek baked beans)</t>
   </si>
@@ -309,12 +308,15 @@
   </si>
   <si>
     <t>https://imagesvc.meredithcorp.io/v3/mm/image?url=https%3A%2F%2Fstatic.onecms.io%2Fwp-content%2Fuploads%2Fsites%2F44%2F2021%2F09%2F17%2Fcreamy-mushroom-annd-spinach-pasta.jpg</t>
+  </si>
+  <si>
+    <t>featured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,23 +697,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -733,8 +735,11 @@
       <c r="G1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -756,8 +761,11 @@
       <c r="G2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -779,8 +787,11 @@
       <c r="G3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -802,8 +813,11 @@
       <c r="G4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -825,8 +839,11 @@
       <c r="G5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -848,8 +865,11 @@
       <c r="G6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -871,8 +891,11 @@
       <c r="G7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -894,8 +917,11 @@
       <c r="G8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -917,8 +943,11 @@
       <c r="G9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -940,8 +969,11 @@
       <c r="G10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -963,8 +995,11 @@
       <c r="G11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -986,8 +1021,11 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1009,8 +1047,11 @@
       <c r="G13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1032,8 +1073,11 @@
       <c r="G14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1055,8 +1099,11 @@
       <c r="G15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1125,11 @@
       <c r="G16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1101,8 +1151,11 @@
       <c r="G17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1124,8 +1177,11 @@
       <c r="G18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1147,8 +1203,11 @@
       <c r="G19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1170,8 +1229,11 @@
       <c r="G20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1193,29 +1255,32 @@
       <c r="G21">
         <v>10</v>
       </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{FDED892D-CD14-4B50-8FB3-95ADBE1BD8FF}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{F4BA3A77-CEF4-4268-AB8C-1DA9E02C8F04}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{E51DF6D6-F858-4821-8973-A4EE399B6CD5}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{9C65BC59-DC65-4E1D-AE13-B118F5356C24}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
